--- a/宏观经济/eta/10年期美国国债收益率Trend—F0.05_月度数据.xlsx
+++ b/宏观经济/eta/10年期美国国债收益率Trend—F0.05_月度数据.xlsx
@@ -468,10 +468,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.28</v>
+        <v>4.27</v>
       </c>
       <c r="C3" t="n">
-        <v>4.28</v>
+        <v>4.27</v>
       </c>
     </row>
     <row r="4">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4.29</v>
+        <v>4.28</v>
       </c>
       <c r="C5" t="inlineStr"/>
     </row>
@@ -525,7 +525,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.3</v>
+        <v>4.29</v>
       </c>
       <c r="C8" t="inlineStr"/>
     </row>
@@ -536,7 +536,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4.3</v>
+        <v>4.29</v>
       </c>
       <c r="C9" t="inlineStr"/>
     </row>
@@ -558,7 +558,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4.3</v>
+        <v>4.29</v>
       </c>
       <c r="C11" t="inlineStr"/>
     </row>
